--- a/Test_Case_Format_(Popa Marius Catalin) (Project Arduido PingPong).xlsx
+++ b/Test_Case_Format_(Popa Marius Catalin) (Project Arduido PingPong).xlsx
@@ -5,31 +5,29 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Catalin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Catalin\Desktop\examen\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="6030"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="6030" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="test case format" sheetId="1" r:id="rId1"/>
     <sheet name="legend" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="77">
   <si>
     <t>Project Name:</t>
   </si>
   <si>
+    <t>Arduido Ping Pong</t>
+  </si>
+  <si>
     <t>Test Designed by:</t>
   </si>
   <si>
@@ -57,6 +55,18 @@
     <t>Test Priority</t>
   </si>
   <si>
+    <t>Test Case ID</t>
+  </si>
+  <si>
+    <t>Test case name</t>
+  </si>
+  <si>
+    <t>Test case description</t>
+  </si>
+  <si>
+    <t>Test case Steps</t>
+  </si>
+  <si>
     <t>Expected Result</t>
   </si>
   <si>
@@ -66,60 +76,15 @@
     <t>Actual Result</t>
   </si>
   <si>
-    <t>Test Case ID</t>
-  </si>
-  <si>
     <t>Test case Status</t>
   </si>
   <si>
-    <t>Test case description</t>
-  </si>
-  <si>
-    <t>Test case name</t>
-  </si>
-  <si>
-    <t>Test case Steps</t>
+    <t>Test case comment and incident report id</t>
   </si>
   <si>
     <t>Requirement ID</t>
   </si>
   <si>
-    <t>Test priority</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>mediu</t>
-  </si>
-  <si>
-    <t>high</t>
-  </si>
-  <si>
-    <t>very high</t>
-  </si>
-  <si>
-    <t>Test case status</t>
-  </si>
-  <si>
-    <t>accepted</t>
-  </si>
-  <si>
-    <t>in work</t>
-  </si>
-  <si>
-    <t>review</t>
-  </si>
-  <si>
-    <t>discarded</t>
-  </si>
-  <si>
-    <t>Test case comment and incident report id</t>
-  </si>
-  <si>
-    <t>Arduido Ping Pong</t>
-  </si>
-  <si>
     <t>2 player game</t>
   </si>
   <si>
@@ -132,9 +97,15 @@
     <t>The game console has 4 control buttons</t>
   </si>
   <si>
+    <t>Go back into default state</t>
+  </si>
+  <si>
     <t>pass</t>
   </si>
   <si>
+    <t>in review</t>
+  </si>
+  <si>
     <t>up and down buttons</t>
   </si>
   <si>
@@ -147,6 +118,12 @@
     <t>The control buttons has the message up and down</t>
   </si>
   <si>
+    <t>fail</t>
+  </si>
+  <si>
+    <t>The control buttons has the message up and up for player 1 ande up and down for player 2   Reported with Incident report BUG ID 2</t>
+  </si>
+  <si>
     <t xml:space="preserve">welcome message </t>
   </si>
   <si>
@@ -159,7 +136,7 @@
     <t>The game console dispalys the message " Let's Start the ping pong game. Press a button"</t>
   </si>
   <si>
-    <t>in review</t>
+    <t>The Game console dispalys the message "Ping Pong  Press a button"                            Reported with Incident report BUG ID 3</t>
   </si>
   <si>
     <t>game start and control</t>
@@ -198,7 +175,7 @@
     <t>The game ends after 5 round and displays the message "GAME OVER PLAYER &lt;X&gt; WINS" where x is player 1 or 2</t>
   </si>
   <si>
-    <t>fail</t>
+    <t>The game does not end not even afetr 15 rounds      Reported with Incident Report BUG ID 1</t>
   </si>
   <si>
     <t>Score dispay</t>
@@ -213,25 +190,13 @@
     <t>After each round the score for each player it is displayed</t>
   </si>
   <si>
+    <t>Go back into defolt state</t>
+  </si>
+  <si>
     <t>Delay after case id 6</t>
   </si>
   <si>
     <t>Check the code if after the message " GAME OVER  PLAYER &lt;X&gt; WINS" the delay is 3000</t>
-  </si>
-  <si>
-    <t>Text should remain on screen for 3 seconds " delay(3000)"</t>
-  </si>
-  <si>
-    <t>Ball reset</t>
-  </si>
-  <si>
-    <t>Check the code that if var Point_Scored == 1 reset the ping-pong ball</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Open the app              2. Click on yhe button        "CODE"                          3. Look in code for var Point_Scored == 1           4. See if this variable is included in an "if" condition 5. Check the explanations </t>
-  </si>
-  <si>
-    <t>The Point _Scored variable must be included in an "if" condition</t>
   </si>
   <si>
     <t>1. Open the app              2. Click on yhe button        "CODE"                          3. Look in code for " // Printing the Winner on Display
@@ -239,31 +204,55 @@
     delay(5000);"</t>
   </si>
   <si>
-    <t>Go back into defolt state</t>
+    <t>Text should remain on screen for 3 seconds " delay(3000)"</t>
+  </si>
+  <si>
+    <t>Text remains on screen for 5 seconds           delay(5000)   Reported with Incident Report BUG ID 4</t>
   </si>
   <si>
     <t>8, 6</t>
   </si>
   <si>
-    <t>Go back into default state</t>
-  </si>
-  <si>
-    <t>The control buttons has the message up and up for player 1 ande up and down for player 2   Reported with Incident report BUG ID 2</t>
-  </si>
-  <si>
-    <t>The Game console dispalys the message "Ping Pong  Press a button"                            Reported with Incident report BUG ID 3</t>
-  </si>
-  <si>
-    <t>Text remains on screen for 5 seconds           delay(5000)   Reported with Incident Report BUG ID 4</t>
-  </si>
-  <si>
-    <t>The game does not end not even afetr 15 rounds      Reported with Incident Report BUG ID 1</t>
-  </si>
-  <si>
-    <t>Popa Marius Catalin</t>
-  </si>
-  <si>
-    <t>28.01,2022</t>
+    <t>Ball reset</t>
+  </si>
+  <si>
+    <t>Check the code that if var Point_Scored == 1 reset the ping-pong ball</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Open the app              2. Click on yhe button        "CODE"                          3. Look in code for var Point_Scored == 1           4. See if this variable is included in an "if" condition 5. Check the explanations </t>
+  </si>
+  <si>
+    <t>The Point _Scored variable must be included in an "if" condition</t>
+  </si>
+  <si>
+    <t>Test priority</t>
+  </si>
+  <si>
+    <t>Test case status</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>accepted</t>
+  </si>
+  <si>
+    <t>mediu</t>
+  </si>
+  <si>
+    <t>in work</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>review</t>
+  </si>
+  <si>
+    <t>very high</t>
+  </si>
+  <si>
+    <t>discarded</t>
   </si>
 </sst>
 </file>
@@ -383,24 +372,11 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="16">
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -617,13 +593,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -632,19 +608,19 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -657,34 +633,22 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -693,19 +657,31 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -717,61 +693,40 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -788,55 +743,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>9524</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>39708</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48876160-D536-4478-AC88-8471FA34E356}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="1285874" cy="439758"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1104,8 +1010,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J349"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1752,52 +1658,46 @@
     <col min="16137" max="16137" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="44"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>77</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="E1" s="3"/>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
       <c r="I1" s="5"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="45"/>
       <c r="B2" s="6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>78</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="E2" s="3"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
     </row>
-    <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8"/>
       <c r="B3" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="54">
-        <v>1</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="4"/>
@@ -1805,12 +1705,12 @@
       <c r="H3" s="4"/>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
       <c r="B4" s="9"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E4" s="37"/>
       <c r="F4" s="4"/>
@@ -1829,9 +1729,9 @@
       <c r="H5" s="4"/>
       <c r="I5" s="12"/>
     </row>
-    <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6" s="46"/>
       <c r="C6" s="47"/>
@@ -1844,31 +1744,31 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B7" s="46"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="50"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="48"/>
       <c r="I7" s="14"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="51"/>
-      <c r="C8" s="52"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="52"/>
-      <c r="G8" s="52"/>
-      <c r="H8" s="53"/>
+        <v>10</v>
+      </c>
+      <c r="B8" s="49"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="48"/>
       <c r="I8" s="14"/>
     </row>
-    <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="16"/>
       <c r="B9" s="17"/>
       <c r="C9" s="14"/>
@@ -1879,284 +1779,284 @@
       <c r="H9" s="17"/>
       <c r="I9" s="14"/>
     </row>
-    <row r="10" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="36" t="s">
+      <c r="D10" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="19" t="s">
+      <c r="G10" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="19" t="s">
-        <v>12</v>
-      </c>
       <c r="H10" s="36" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I10" s="35" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="J10" s="35" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="51" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="20">
         <v>1</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C11" s="40" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D11" s="40" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="E11" s="40" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="F11" s="22" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="G11" s="40" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="H11" s="21" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="I11" s="40"/>
       <c r="J11" s="23">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="24">
         <v>2</v>
       </c>
       <c r="B12" s="41" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C12" s="42" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D12" s="40" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="E12" s="42" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F12" s="26" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="G12" s="42" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="H12" s="25" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="I12" s="42" t="s">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="J12" s="27">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="24">
         <v>3</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C13" s="42" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D13" s="40" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E13" s="42" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F13" s="26" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="G13" s="42" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="H13" s="25" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="I13" s="43" t="s">
-        <v>74</v>
+        <v>38</v>
       </c>
       <c r="J13" s="27">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="114.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="114.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="24">
         <v>4</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C14" s="42" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D14" s="42" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E14" s="42" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F14" s="26" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="G14" s="42" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="H14" s="25" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="I14" s="27"/>
       <c r="J14" s="27">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="24">
         <v>5</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C15" s="42" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D15" s="42" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E15" s="42" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F15" s="26" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="G15" s="42" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="H15" s="25" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="I15" s="27"/>
       <c r="J15" s="27">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="127.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="24">
         <v>6</v>
       </c>
       <c r="B16" s="41" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C16" s="42" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D16" s="42" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E16" s="42" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F16" s="26" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="G16" s="42" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="H16" s="25" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="I16" s="43" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="J16" s="27">
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="102" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="102" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="24">
         <v>7</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C17" s="42" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D17" s="42" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="E17" s="42" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F17" s="26" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="G17" s="42" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="H17" s="25" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="I17" s="27"/>
       <c r="J17" s="27">
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="140.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="24">
         <v>8</v>
       </c>
       <c r="B18" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="F18" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="G18" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="H18" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="I18" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="J18" s="27" t="s">
         <v>62</v>
-      </c>
-      <c r="C18" s="42" t="s">
-        <v>63</v>
-      </c>
-      <c r="D18" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="E18" s="42" t="s">
-        <v>64</v>
-      </c>
-      <c r="F18" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="G18" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="H18" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="I18" s="42" t="s">
-        <v>75</v>
-      </c>
-      <c r="J18" s="27" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="136.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2164,25 +2064,25 @@
         <v>9</v>
       </c>
       <c r="B19" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="C19" s="42" t="s">
+      <c r="E19" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="D19" s="42" t="s">
-        <v>67</v>
-      </c>
-      <c r="E19" s="42" t="s">
-        <v>68</v>
-      </c>
       <c r="F19" s="26" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="G19" s="42" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="H19" s="25" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="I19" s="27"/>
       <c r="J19" s="27">
@@ -2201,7 +2101,7 @@
       <c r="I20" s="27"/>
       <c r="J20" s="27"/>
     </row>
-    <row r="21" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="28"/>
       <c r="B21" s="29"/>
       <c r="C21" s="30"/>
@@ -5829,7 +5729,6 @@
     <mergeCell ref="B8:H8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5837,7 +5736,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -5849,46 +5748,46 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="39" t="s">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="B1" s="39" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="38" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="B2" s="38" t="s">
-        <v>25</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="38" t="s">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>26</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="38" t="s">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="B4" s="38" t="s">
-        <v>27</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="38" t="s">
-        <v>23</v>
+        <v>75</v>
       </c>
       <c r="B5" s="38" t="s">
-        <v>28</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>